--- a/期末项目表.xlsx
+++ b/期末项目表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5C4967E-BF71-47A6-8EDB-1439A9EF7F0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{85A4DBC9-73CF-4865-8CE0-63194EBF7E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C6ED04A2-A9B4-4F80-A2E3-5F6CBBFB6798}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,10 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{ int Collection Id
  String CollectionName
  String author
@@ -248,6 +245,104 @@
   </si>
   <si>
     <t>前端接口没实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Complaints/injection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String username 用户名
+String content 内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {state 添加成功
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{state 0 投诉失败
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端功能没实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/comments/addReplyComment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">String username 用户名
+String content 内容
+String date 日期
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {state 1 回复成功
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{state 0 回复失败
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端功能好像没实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integer id;
+int articleId;文章id
+int commentId;内容id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {state 1  评论成功
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{state 0 评论失败
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Delete/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int Aid 文章id
+String username  用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> {state 1  删除成功
+}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D9B1F1-99BF-417A-AD51-F76FA1B7E0E0}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -637,10 +732,10 @@
     <col min="1" max="1" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.21875" customWidth="1"/>
     <col min="6" max="6" width="54.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -671,22 +766,22 @@
     </row>
     <row r="2" spans="1:9" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -694,22 +789,22 @@
     </row>
     <row r="3" spans="1:9" ht="87" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
@@ -717,22 +812,22 @@
     </row>
     <row r="4" spans="1:9" ht="87" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -740,46 +835,46 @@
     </row>
     <row r="5" spans="1:9" ht="87" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="87" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -819,7 +914,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>16</v>
@@ -828,49 +923,97 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+    <row r="10" spans="1:9" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+    <row r="11" spans="1:9" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+    <row r="12" spans="1:9" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
